--- a/backend/data/datos.xlsx
+++ b/backend/data/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52557\Desktop\Obras-publicas\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C893042-A864-4A0A-9F68-98A1B941DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290443D-88B3-45FF-AF73-39229056DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="11709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -839,7 +839,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -849,7 +848,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1157,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:BO7"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1253,7 +1251,7 @@
       <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1450,13 +1448,13 @@
       <c r="F2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>6000</v>
       </c>
       <c r="H2">
         <v>428.09483432000002</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>2569.1</v>
       </c>
       <c r="J2">
@@ -1659,7 +1657,7 @@
       <c r="H3">
         <v>410.47</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1990.6</v>
       </c>
       <c r="J3">
@@ -1755,7 +1753,7 @@
       <c r="AO3" t="s">
         <v>41</v>
       </c>
-      <c r="AP3" s="9"/>
+      <c r="AP3" s="7"/>
       <c r="AR3" t="s">
         <v>42</v>
       </c>
@@ -1851,10 +1849,10 @@
       <c r="G4">
         <v>3000</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>421.61</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
       <c r="J4">
@@ -1953,10 +1951,10 @@
       <c r="AO4" t="s">
         <v>186</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="8">
         <v>45989</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AQ4" s="8">
         <v>46901</v>
       </c>
       <c r="AR4">
@@ -1992,7 +1990,7 @@
       <c r="BB4" t="s">
         <v>210</v>
       </c>
-      <c r="BC4" s="10">
+      <c r="BC4" s="8">
         <v>46053</v>
       </c>
       <c r="BD4" t="s">
@@ -2051,13 +2049,13 @@
       <c r="F5" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>6000</v>
       </c>
       <c r="H5">
         <v>764.20592810962</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>50</v>
       </c>
       <c r="J5">
@@ -2147,10 +2145,10 @@
       <c r="AL5" t="s">
         <v>183</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="6">
         <v>46023</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="6">
         <v>46235</v>
       </c>
       <c r="AO5" t="s">
@@ -2195,7 +2193,7 @@
       <c r="BB5" t="s">
         <v>211</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BC5" s="8">
         <v>46053</v>
       </c>
       <c r="BD5" t="s">
@@ -2236,10 +2234,7 @@
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.4">
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.4">
-      <c r="I7" s="7"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/datos.xlsx
+++ b/backend/data/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52557\Desktop\Obras-publicas\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290443D-88B3-45FF-AF73-39229056DB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C096AD-2121-4BE6-A596-C62A943D5AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="11709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="229">
   <si>
     <t>M2</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>Control notas</t>
+  </si>
+  <si>
+    <t>rojo</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1160,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1518,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="AE2" t="s">
         <v>4</v>
@@ -1916,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="s">
         <v>4</v>
@@ -2119,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="AE5" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="AF5" t="s">
         <v>4</v>
@@ -2238,5 +2241,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>